--- a/WIP/files/Q03.xlsx
+++ b/WIP/files/Q03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\WIP\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0D8436-C814-41FB-B397-0D39364DBE91}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E3D2F2-C766-4075-9700-AA3189031CCF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="4" xr2:uid="{114C4A40-3118-4908-BE0A-967DD933859A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" firstSheet="2" activeTab="4" xr2:uid="{114C4A40-3118-4908-BE0A-967DD933859A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,12 +47,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -67,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -77,6 +107,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,7 +439,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,7 +448,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -436,13 +481,13 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:G16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -480,13 +525,13 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -520,13 +565,13 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:G10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -554,13 +599,13 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:G13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
